--- a/model/Outputs/2. No PV/Output Files/10/Output_46_42.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_46_42.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2893528.465455822</v>
+        <v>2983516.471989407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>390009.9202269218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Total Wasted Prosumer Surplus</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>390009.9202269218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25040.62090061318</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Total Unmet Demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25040.62090061318</v>
       </c>
     </row>
   </sheetData>
@@ -7932,10 +7972,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>133.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N2" t="n">
-        <v>66.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O2" t="n">
         <v>70.24786957409245</v>
@@ -7944,13 +7984,13 @@
         <v>0.2870600406814136</v>
       </c>
       <c r="Q2" t="n">
-        <v>65.1462737815132</v>
+        <v>95.77774292727663</v>
       </c>
       <c r="R2" t="n">
-        <v>134.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S2" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -8011,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>280.7452970331069</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,19 +8118,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.9652212947398</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8160,7 +8200,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8169,25 +8209,25 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>133.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N5" t="n">
-        <v>236.9731677112126</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.77774292727648</v>
       </c>
       <c r="R5" t="n">
-        <v>134.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S5" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -8236,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>63.55651058762137</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8248,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8260,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.354460434013</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8318,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.392602634999048</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8327,13 +8367,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8397,7 +8437,7 @@
         <v>134.3207615018508</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8406,25 +8446,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>133.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N8" t="n">
-        <v>166.7252981371202</v>
+        <v>400.2040166696262</v>
       </c>
       <c r="O8" t="n">
         <v>70.24786957409245</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R8" t="n">
-        <v>134.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S8" t="n">
-        <v>82.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -8473,19 +8513,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.03210758037386</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8494,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8552,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -8564,10 +8604,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>140.4506664112271</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8631,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8643,25 +8683,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N11" t="n">
-        <v>77.24895806983523</v>
+        <v>380.807411741523</v>
       </c>
       <c r="O11" t="n">
         <v>70.24786957409245</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R11" t="n">
-        <v>324.4509237112295</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -8722,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>284.8737722245422</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8737,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8795,16 +8835,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>123.3293437746006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8880,25 +8920,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>129.2621276423173</v>
+        <v>473.0553130019414</v>
       </c>
       <c r="N14" t="n">
-        <v>62.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R14" t="n">
-        <v>454.7374135786099</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S14" t="n">
-        <v>78.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -8947,19 +8987,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.69630176365411</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8968,13 +9008,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9026,19 +9066,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>129.6924940220125</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9105,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9117,25 +9157,25 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>124.2621276423173</v>
+        <v>479.2545269057989</v>
       </c>
       <c r="N17" t="n">
-        <v>405.3705055360184</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P17" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R17" t="n">
-        <v>125.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S17" t="n">
-        <v>73.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -9184,19 +9224,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>201.6874009006337</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9205,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9269,16 +9309,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.6015849311034</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,10 +9382,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9354,25 +9394,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>124.2621276423173</v>
+        <v>479.254526905799</v>
       </c>
       <c r="N20" t="n">
-        <v>57.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R20" t="n">
-        <v>473.8283226695191</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S20" t="n">
-        <v>73.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -9424,16 +9464,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>319.5683032307831</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9448,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9497,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -9506,16 +9546,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>101.2708995452249</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9579,10 +9619,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9591,25 +9631,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>472.6707351491818</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N23" t="n">
-        <v>57.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R23" t="n">
-        <v>125.4197151626545</v>
+        <v>480.4121144261362</v>
       </c>
       <c r="S23" t="n">
-        <v>73.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -9658,34 +9698,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>135.8844336811168</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9737,13 +9777,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>198.9797601612903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9752,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>49.03885861007237</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9816,10 +9856,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9828,25 +9868,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>393.5412057649847</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N26" t="n">
-        <v>77.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>76.38113799917303</v>
       </c>
       <c r="R26" t="n">
-        <v>145.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S26" t="n">
-        <v>93.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -9904,16 +9944,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9922,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.52255902383829</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -9974,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.525218448193224</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -9986,13 +10026,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10053,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10065,22 +10105,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>122.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N29" t="n">
-        <v>55.24895806983523</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>20.77758312855677</v>
       </c>
       <c r="P29" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R29" t="n">
-        <v>309.4749612147357</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S29" t="n">
         <v>243.4777578001058</v>
@@ -10132,13 +10172,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>153.2284821268366</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>58.82808503576541</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10147,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,22 +10254,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.624109301665675</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10290,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10302,25 +10342,25 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>94.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N32" t="n">
         <v>477.2489580698352</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>140.5026296332784</v>
       </c>
       <c r="R32" t="n">
-        <v>136.964896988909</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S32" t="n">
-        <v>43.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -10375,22 +10415,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>104.7763862222222</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>203.0741118819354</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10457,13 +10497,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>121.2939067745377</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10527,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J35" t="n">
         <v>35.04300624509033</v>
@@ -10539,25 +10579,25 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>94.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N35" t="n">
-        <v>33.75113365099949</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R35" t="n">
         <v>545.4197151626545</v>
       </c>
       <c r="S35" t="n">
-        <v>43.77509274964024</v>
+        <v>211.4447631465809</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -10609,16 +10649,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10630,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.55906837249522</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10682,13 +10722,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>29.33068538587851</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.91099009378333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10700,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>107.8103950486296</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10764,10 +10804,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10779,22 +10819,22 @@
         <v>544.2621276423173</v>
       </c>
       <c r="N38" t="n">
-        <v>68.50707985540838</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>37.92781487988605</v>
       </c>
       <c r="P38" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R38" t="n">
-        <v>95.41971516265448</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S38" t="n">
-        <v>43.77509274964024</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -10843,10 +10883,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>47.46072777688445</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2561356901127</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10858,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>350.7819770626954</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>141.2247768981573</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10870,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.83432601147232</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10925,16 +10965,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>169.4692651351351</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>176.1396376949581</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11001,10 +11041,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11013,25 +11053,25 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>155.2621276423173</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N41" t="n">
-        <v>280.5280361925027</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>68.36018902227012</v>
       </c>
       <c r="R41" t="n">
-        <v>156.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S41" t="n">
-        <v>104.7750927496402</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -11092,16 +11132,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>384.7447782656031</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>167.3442178730427</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11162,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>123.0978371079339</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>209.5527724444444</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>225.2274288888889</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11238,10 +11278,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>134.3207615018508</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11250,25 +11290,25 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>192.813933037712</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N44" t="n">
-        <v>125.2489580698352</v>
+        <v>195.7522184336364</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>172.8226843274854</v>
       </c>
       <c r="R44" t="n">
-        <v>193.4197151626545</v>
+        <v>545.4197151626545</v>
       </c>
       <c r="S44" t="n">
-        <v>141.7750927496402</v>
+        <v>243.4777578001058</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -11323,22 +11363,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.433655340886031</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>113.9979611111111</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>384.7447782656031</v>
+        <v>36.74477826560314</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.781977062695432</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>105.4847073258963</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11405,13 +11445,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>227.9959222222222</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>95.47621107258033</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>224.3149960555556</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -24624,10 +24664,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>59.99931295557451</v>
+        <v>48.99931295557451</v>
       </c>
       <c r="C29" t="n">
-        <v>27.47457824299391</v>
+        <v>16.47457824299391</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24642,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>13.02773927029563</v>
+        <v>2.027739270295626</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24678,22 +24718,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>107.6191915811053</v>
+        <v>96.61919158110527</v>
       </c>
       <c r="U29" t="n">
-        <v>222.5217529288726</v>
+        <v>211.5217529288726</v>
       </c>
       <c r="V29" t="n">
-        <v>207.8510241668239</v>
+        <v>196.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>216.3734759809475</v>
+        <v>205.3734759809475</v>
       </c>
       <c r="X29" t="n">
-        <v>170.2818334606677</v>
+        <v>159.2818334606677</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.31743268280638</v>
+        <v>78.31743268280638</v>
       </c>
     </row>
     <row r="30">
@@ -24766,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.37314290982852</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24827,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.1821235684552</v>
+        <v>89.18212356845515</v>
       </c>
       <c r="R31" t="n">
-        <v>299.1956210454637</v>
+        <v>288.1956210454637</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25572,25 +25612,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.99931295557451</v>
+        <v>85.99931295557451</v>
       </c>
       <c r="C41" t="n">
-        <v>60.47457824299391</v>
+        <v>53.47457824299391</v>
       </c>
       <c r="D41" t="n">
-        <v>21.33915573984979</v>
+        <v>14.33915573984979</v>
       </c>
       <c r="E41" t="n">
-        <v>15.36328960686865</v>
+        <v>8.363289606868648</v>
       </c>
       <c r="F41" t="n">
-        <v>15.88962870801186</v>
+        <v>8.889628708011855</v>
       </c>
       <c r="G41" t="n">
-        <v>21.83274917143831</v>
+        <v>14.83274917143831</v>
       </c>
       <c r="H41" t="n">
-        <v>46.02773927029563</v>
+        <v>39.02773927029563</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25626,22 +25666,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>140.6191915811053</v>
+        <v>133.6191915811053</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5217529288726</v>
+        <v>248.5217529288726</v>
       </c>
       <c r="V41" t="n">
-        <v>240.8510241668239</v>
+        <v>233.8510241668239</v>
       </c>
       <c r="W41" t="n">
-        <v>249.3734759809475</v>
+        <v>242.3734759809475</v>
       </c>
       <c r="X41" t="n">
-        <v>203.2818334606677</v>
+        <v>196.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.3174326828064</v>
+        <v>115.3174326828064</v>
       </c>
     </row>
     <row r="42">
@@ -25708,19 +25748,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>10.68869740971195</v>
+        <v>3.688697409711949</v>
       </c>
       <c r="V42" t="n">
-        <v>25.51066719152016</v>
+        <v>18.51066719152016</v>
       </c>
       <c r="W42" t="n">
-        <v>43.37314290982852</v>
+        <v>36.37314290982852</v>
       </c>
       <c r="X42" t="n">
-        <v>30.86273944538755</v>
+        <v>23.86273944538755</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.39139276613435</v>
+        <v>3.391392766134345</v>
       </c>
     </row>
     <row r="43">
@@ -25775,13 +25815,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1821235684552</v>
+        <v>126.1821235684552</v>
       </c>
       <c r="R43" t="n">
-        <v>332.1956210454637</v>
+        <v>325.1956210454637</v>
       </c>
       <c r="S43" t="n">
-        <v>20.54122605486401</v>
+        <v>13.54122605486401</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25809,25 +25849,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>129.9993129555745</v>
+        <v>133.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>97.47457824299391</v>
+        <v>101.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>58.33915573984979</v>
+        <v>62.33915573984979</v>
       </c>
       <c r="E44" t="n">
-        <v>52.36328960686865</v>
+        <v>56.36328960686865</v>
       </c>
       <c r="F44" t="n">
-        <v>52.88962870801186</v>
+        <v>56.88962870801186</v>
       </c>
       <c r="G44" t="n">
-        <v>58.83274917143831</v>
+        <v>62.83274917143831</v>
       </c>
       <c r="H44" t="n">
-        <v>83.02773927029563</v>
+        <v>87.02773927029563</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25863,22 +25903,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>177.6191915811053</v>
+        <v>181.6191915811053</v>
       </c>
       <c r="U44" t="n">
-        <v>292.5217529288726</v>
+        <v>296.5217529288726</v>
       </c>
       <c r="V44" t="n">
-        <v>277.8510241668239</v>
+        <v>281.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>286.3734759809475</v>
+        <v>290.3734759809475</v>
       </c>
       <c r="X44" t="n">
-        <v>240.2818334606677</v>
+        <v>244.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.3174326828064</v>
+        <v>163.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -25888,10 +25928,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.55655664632661</v>
+        <v>36.55655664632661</v>
       </c>
       <c r="C45" t="n">
-        <v>9.099912445519294</v>
+        <v>13.09991244551929</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25936,28 +25976,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.670541650500091</v>
+        <v>5.670541650500091</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>36.53401876295709</v>
+        <v>40.53401876295709</v>
       </c>
       <c r="U45" t="n">
-        <v>47.68869740971195</v>
+        <v>51.68869740971195</v>
       </c>
       <c r="V45" t="n">
-        <v>62.51066719152016</v>
+        <v>66.51066719152016</v>
       </c>
       <c r="W45" t="n">
-        <v>80.37314290982852</v>
+        <v>84.37314290982852</v>
       </c>
       <c r="X45" t="n">
-        <v>67.86273944538755</v>
+        <v>71.86273944538755</v>
       </c>
       <c r="Y45" t="n">
-        <v>47.39139276613435</v>
+        <v>51.39139276613435</v>
       </c>
     </row>
     <row r="46">
@@ -26012,13 +26052,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.1821235684552</v>
+        <v>174.1821235684552</v>
       </c>
       <c r="R46" t="n">
-        <v>369.1956210454637</v>
+        <v>373.1956210454637</v>
       </c>
       <c r="S46" t="n">
-        <v>57.54122605486401</v>
+        <v>61.54122605486401</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26115,13 +26155,13 @@
         <v>1088991.779348818</v>
       </c>
       <c r="C2" t="n">
-        <v>1088991.779348817</v>
+        <v>1088991.779348818</v>
       </c>
       <c r="D2" t="n">
         <v>1088991.779348818</v>
       </c>
       <c r="E2" t="n">
-        <v>1080321.657497005</v>
+        <v>1080321.657497006</v>
       </c>
       <c r="F2" t="n">
         <v>1091513.934822545</v>
@@ -26139,7 +26179,7 @@
         <v>1080321.657497005</v>
       </c>
       <c r="K2" t="n">
-        <v>1095395.574459305</v>
+        <v>1100963.972622691</v>
       </c>
       <c r="L2" t="n">
         <v>1107947.191198049</v>
@@ -26151,10 +26191,10 @@
         <v>1107947.191198049</v>
       </c>
       <c r="O2" t="n">
-        <v>1069703.950902306</v>
+        <v>1076498.290902305</v>
       </c>
       <c r="P2" t="n">
-        <v>1028659.141146295</v>
+        <v>1023748.501146295</v>
       </c>
     </row>
     <row r="3">
@@ -26191,10 +26231,10 @@
         <v>295200</v>
       </c>
       <c r="K3" t="n">
-        <v>29600</v>
+        <v>38400</v>
       </c>
       <c r="L3" t="n">
-        <v>35200</v>
+        <v>26400</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26203,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>246400</v>
+        <v>252000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26216,49 +26256,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650759.0494438011</v>
+        <v>639645.1686435367</v>
       </c>
       <c r="C4" t="n">
-        <v>648592.5278823976</v>
+        <v>637441.4966817662</v>
       </c>
       <c r="D4" t="n">
-        <v>646423.0672992714</v>
+        <v>635234.835301436</v>
       </c>
       <c r="E4" t="n">
-        <v>639121.3781273682</v>
+        <v>627935.7725567686</v>
       </c>
       <c r="F4" t="n">
-        <v>643562.3219890391</v>
+        <v>632285.9385378254</v>
       </c>
       <c r="G4" t="n">
-        <v>643060.5280267065</v>
+        <v>631735.329673788</v>
       </c>
       <c r="H4" t="n">
-        <v>640868.3164223082</v>
+        <v>629505.6473250921</v>
       </c>
       <c r="I4" t="n">
-        <v>638673.0444549285</v>
+        <v>627272.8523036477</v>
       </c>
       <c r="J4" t="n">
-        <v>628300.9756670402</v>
+        <v>616928.8545336515</v>
       </c>
       <c r="K4" t="n">
-        <v>634864.2580719898</v>
+        <v>626602.9033389771</v>
       </c>
       <c r="L4" t="n">
-        <v>639906.93897691</v>
+        <v>628381.5089982101</v>
       </c>
       <c r="M4" t="n">
-        <v>637671.8223657643</v>
+        <v>626108.6907695305</v>
       </c>
       <c r="N4" t="n">
-        <v>635433.4920285991</v>
+        <v>623832.6046061742</v>
       </c>
       <c r="O4" t="n">
-        <v>611335.9085224314</v>
+        <v>603682.4268487983</v>
       </c>
       <c r="P4" t="n">
-        <v>585794.6125504612</v>
+        <v>572854.6953918893</v>
       </c>
     </row>
     <row r="5">
@@ -26295,7 +26335,7 @@
         <v>33627.6</v>
       </c>
       <c r="K5" t="n">
-        <v>35477.118</v>
+        <v>36401.877</v>
       </c>
       <c r="L5" t="n">
         <v>37831.05</v>
@@ -26307,10 +26347,10 @@
         <v>37831.05</v>
       </c>
       <c r="O5" t="n">
-        <v>32702.841</v>
+        <v>33291.324</v>
       </c>
       <c r="P5" t="n">
-        <v>29592.288</v>
+        <v>29256.012</v>
       </c>
     </row>
     <row r="6">
@@ -26320,49 +26360,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394880.3709050166</v>
+        <v>405994.251705281</v>
       </c>
       <c r="C6" t="n">
-        <v>405846.8924664198</v>
+        <v>416997.9236670514</v>
       </c>
       <c r="D6" t="n">
-        <v>408016.3530495463</v>
+        <v>419204.5850473816</v>
       </c>
       <c r="E6" t="n">
-        <v>96372.67936963716</v>
+        <v>107558.2849402369</v>
       </c>
       <c r="F6" t="n">
-        <v>401062.9778335056</v>
+        <v>412339.3612847195</v>
       </c>
       <c r="G6" t="n">
-        <v>403206.3064325987</v>
+        <v>414531.5047855172</v>
       </c>
       <c r="H6" t="n">
-        <v>418198.5180369971</v>
+        <v>429561.1871342132</v>
       </c>
       <c r="I6" t="n">
-        <v>420393.7900043768</v>
+        <v>431793.9821556576</v>
       </c>
       <c r="J6" t="n">
-        <v>123193.0818299651</v>
+        <v>134565.2029633538</v>
       </c>
       <c r="K6" t="n">
-        <v>395454.1983873155</v>
+        <v>399559.1922837138</v>
       </c>
       <c r="L6" t="n">
-        <v>395009.2022211389</v>
+        <v>415334.632199839</v>
       </c>
       <c r="M6" t="n">
-        <v>432444.3188322846</v>
+        <v>444007.4504285184</v>
       </c>
       <c r="N6" t="n">
-        <v>434682.64916945</v>
+        <v>446283.5365918745</v>
       </c>
       <c r="O6" t="n">
-        <v>179265.2013798744</v>
+        <v>187524.5400535071</v>
       </c>
       <c r="P6" t="n">
-        <v>413272.2405958336</v>
+        <v>421637.7937544053</v>
       </c>
     </row>
   </sheetData>
@@ -26635,7 +26675,7 @@
         <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="L2" t="n">
         <v>450</v>
@@ -26647,10 +26687,10 @@
         <v>450</v>
       </c>
       <c r="O2" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P2" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -26857,10 +26897,10 @@
         <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26869,7 +26909,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27094,7 +27134,7 @@
         <v>369</v>
       </c>
       <c r="P2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -27334,10 +27374,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27346,13 +27386,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.6764105459722</v>
+        <v>77.04494140020877</v>
       </c>
       <c r="R2" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T2" t="n">
         <v>411</v>
@@ -27413,10 +27453,10 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N3" t="n">
-        <v>70.03668002958932</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O3" t="n">
         <v>141.2247768981573</v>
@@ -27480,19 +27520,19 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I4" t="n">
-        <v>70.01453886655054</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J4" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L4" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N4" t="n">
         <v>224.3149960555556</v>
@@ -27562,7 +27602,7 @@
         <v>136.407413904614</v>
       </c>
       <c r="J5" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27571,25 +27611,25 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>240.2757903586226</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.8226843274854</v>
+        <v>77.04494140020893</v>
       </c>
       <c r="R5" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T5" t="n">
         <v>411</v>
@@ -27638,7 +27678,7 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I6" t="n">
-        <v>171.2974571962562</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J6" t="n">
         <v>102.2561356901127</v>
@@ -27650,7 +27690,7 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N6" t="n">
         <v>350.7819770626954</v>
@@ -27662,10 +27702,10 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R6" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S6" t="n">
         <v>340.140588939824</v>
@@ -27720,7 +27760,7 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J7" t="n">
-        <v>163.0766625001361</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K7" t="n">
         <v>209.5527724444444</v>
@@ -27729,13 +27769,13 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O7" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P7" t="n">
         <v>301.8909021922657</v>
@@ -27799,7 +27839,7 @@
         <v>136.407413904614</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27808,25 +27848,25 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>310.5236599327151</v>
+        <v>77.04494140020898</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>411</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T8" t="n">
         <v>411</v>
@@ -27875,19 +27915,19 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I9" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J9" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K9" t="n">
-        <v>82.74427864184833</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L9" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N9" t="n">
         <v>350.7819770626954</v>
@@ -27896,7 +27936,7 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q9" t="n">
         <v>190.354460434013</v>
@@ -27954,7 +27994,7 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J10" t="n">
         <v>169.4692651351351</v>
@@ -27966,10 +28006,10 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M10" t="n">
-        <v>84.77676247766172</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O10" t="n">
         <v>212.2016842222222</v>
@@ -28033,10 +28073,10 @@
         <v>400</v>
       </c>
       <c r="I11" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J11" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28045,25 +28085,25 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>400</v>
+        <v>96.44154632831226</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>220.968791451425</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>400</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T11" t="n">
         <v>400</v>
@@ -28124,10 +28164,10 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M12" t="n">
-        <v>99.87100604106104</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O12" t="n">
         <v>141.2247768981573</v>
@@ -28139,7 +28179,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R12" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S12" t="n">
         <v>340.140588939824</v>
@@ -28197,16 +28237,16 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M13" t="n">
         <v>225.2274288888889</v>
       </c>
       <c r="N13" t="n">
-        <v>100.9856522809549</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O13" t="n">
         <v>212.2016842222222</v>
@@ -28270,10 +28310,10 @@
         <v>415</v>
       </c>
       <c r="I14" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J14" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28282,25 +28322,25 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>415</v>
+        <v>71.20681464037591</v>
       </c>
       <c r="N14" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q14" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.68230158404458</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>415</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T14" t="n">
         <v>415</v>
@@ -28349,19 +28389,19 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I15" t="n">
-        <v>190.1576660202234</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J15" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L15" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N15" t="n">
         <v>350.7819770626954</v>
@@ -28370,13 +28410,13 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q15" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R15" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S15" t="n">
         <v>340.140588939824</v>
@@ -28428,19 +28468,19 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I16" t="n">
-        <v>69.28726613927785</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J16" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L16" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N16" t="n">
         <v>224.3149960555556</v>
@@ -28507,10 +28547,10 @@
         <v>420</v>
       </c>
       <c r="I17" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J17" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28519,25 +28559,25 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>420</v>
+        <v>65.00760073651838</v>
       </c>
       <c r="N17" t="n">
-        <v>71.87845253381687</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>420</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T17" t="n">
         <v>420</v>
@@ -28586,19 +28626,19 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I18" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L18" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M18" t="n">
-        <v>183.0573773649695</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N18" t="n">
         <v>350.7819770626954</v>
@@ -28607,7 +28647,7 @@
         <v>141.2247768981573</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q18" t="n">
         <v>190.354460434013</v>
@@ -28671,16 +28711,16 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L19" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N19" t="n">
-        <v>93.71341112445216</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O19" t="n">
         <v>212.2016842222222</v>
@@ -28744,10 +28784,10 @@
         <v>420</v>
       </c>
       <c r="I20" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J20" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28756,25 +28796,25 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>420</v>
+        <v>65.00760073651827</v>
       </c>
       <c r="N20" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>71.59139249313534</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>420</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T20" t="n">
         <v>420</v>
@@ -28826,16 +28866,16 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M21" t="n">
-        <v>65.1764750348201</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N21" t="n">
         <v>350.7819770626954</v>
@@ -28850,7 +28890,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R21" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S21" t="n">
         <v>340.140588939824</v>
@@ -28899,7 +28939,7 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H22" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I22" t="n">
         <v>198.9797601612903</v>
@@ -28908,16 +28948,16 @@
         <v>169.4692651351351</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L22" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N22" t="n">
-        <v>123.0440965103307</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O22" t="n">
         <v>212.2016842222222</v>
@@ -28981,10 +29021,10 @@
         <v>420</v>
       </c>
       <c r="I23" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J23" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -28993,25 +29033,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>71.59139249313546</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>420</v>
+        <v>65.00760073651827</v>
       </c>
       <c r="S23" t="n">
-        <v>420</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T23" t="n">
         <v>420</v>
@@ -29060,34 +29100,34 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I24" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J24" t="n">
         <v>102.2561356901127</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L24" t="n">
         <v>113.9979611111111</v>
       </c>
       <c r="M24" t="n">
-        <v>248.8603445844865</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N24" t="n">
         <v>350.7819770626954</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q24" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R24" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S24" t="n">
         <v>340.140588939824</v>
@@ -29139,13 +29179,13 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J25" t="n">
         <v>169.4692651351351</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L25" t="n">
         <v>227.9959222222222</v>
@@ -29154,10 +29194,10 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N25" t="n">
-        <v>175.2761374454832</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O25" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P25" t="n">
         <v>301.8909021922657</v>
@@ -29218,10 +29258,10 @@
         <v>400</v>
       </c>
       <c r="I26" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J26" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29230,25 +29270,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>150.7209218773326</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.8226843274854</v>
+        <v>96.44154632831237</v>
       </c>
       <c r="R26" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>400</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T26" t="n">
         <v>400</v>
@@ -29306,16 +29346,16 @@
         <v>104.7763862222222</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N27" t="n">
         <v>350.7819770626954</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P27" t="n">
         <v>105.4847073258963</v>
@@ -29324,7 +29364,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R27" t="n">
-        <v>357.9823086381342</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S27" t="n">
         <v>340.140588939824</v>
@@ -29376,7 +29416,7 @@
         <v>216.4223735483871</v>
       </c>
       <c r="I28" t="n">
-        <v>195.4545417130971</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J28" t="n">
         <v>169.4692651351351</v>
@@ -29388,13 +29428,13 @@
         <v>227.9959222222222</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O28" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P28" t="n">
         <v>301.8909021922657</v>
@@ -29434,10 +29474,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D29" t="n">
         <v>410.3391557398498</v>
@@ -29452,13 +29492,13 @@
         <v>410.8327491714383</v>
       </c>
       <c r="H29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I29" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29467,43 +29507,43 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>70.24786957409245</v>
+        <v>49.47028644553568</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>235.9447539479188</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>250.2973349495345</v>
       </c>
       <c r="T29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="U29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="V29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="W29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="X29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Y29" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -29534,13 +29574,13 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I30" t="n">
-        <v>81.62548565704105</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J30" t="n">
-        <v>43.42805065434732</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L30" t="n">
         <v>113.9979611111111</v>
@@ -29549,7 +29589,7 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O30" t="n">
         <v>141.2247768981573</v>
@@ -29576,7 +29616,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>422</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
@@ -29616,31 +29656,31 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J31" t="n">
-        <v>163.8451558334695</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K31" t="n">
         <v>209.5527724444444</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M31" t="n">
         <v>225.2274288888889</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O31" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P31" t="n">
         <v>301.8909021922657</v>
       </c>
       <c r="Q31" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="R31" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="S31" t="n">
         <v>409.541226054864</v>
@@ -29692,10 +29732,10 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I32" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J32" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29704,25 +29744,25 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.8226843274854</v>
+        <v>32.32005469420699</v>
       </c>
       <c r="R32" t="n">
-        <v>408.4548181737455</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>450</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T32" t="n">
         <v>450</v>
@@ -29777,22 +29817,22 @@
         <v>102.2561356901127</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M33" t="n">
         <v>384.7447782656031</v>
       </c>
       <c r="N33" t="n">
-        <v>147.7078651807599</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q33" t="n">
         <v>190.354460434013</v>
@@ -29859,13 +29899,13 @@
         <v>209.5527724444444</v>
       </c>
       <c r="L34" t="n">
-        <v>106.7020154476845</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O34" t="n">
         <v>212.2016842222222</v>
@@ -29929,7 +29969,7 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I35" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -29941,25 +29981,25 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>443.4978244188358</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q35" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>450</v>
+        <v>282.3303296030593</v>
       </c>
       <c r="T35" t="n">
         <v>450</v>
@@ -30011,16 +30051,16 @@
         <v>234.8539677838776</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K36" t="n">
         <v>104.7763862222222</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N36" t="n">
         <v>350.7819770626954</v>
@@ -30032,7 +30072,7 @@
         <v>105.4847073258963</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.7953920615177</v>
+        <v>190.354460434013</v>
       </c>
       <c r="R36" t="n">
         <v>380.5048676619724</v>
@@ -30084,13 +30124,13 @@
         <v>248.1402806959707</v>
       </c>
       <c r="H37" t="n">
-        <v>187.0916881625086</v>
+        <v>216.4223735483871</v>
       </c>
       <c r="I37" t="n">
-        <v>159.068770067507</v>
+        <v>198.9797601612903</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K37" t="n">
         <v>209.5527724444444</v>
@@ -30102,10 +30142,10 @@
         <v>225.2274288888889</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O37" t="n">
-        <v>104.3912891735927</v>
+        <v>212.2016842222222</v>
       </c>
       <c r="P37" t="n">
         <v>301.8909021922657</v>
@@ -30166,10 +30206,10 @@
         <v>435.0277392702956</v>
       </c>
       <c r="I38" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J38" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30181,22 +30221,22 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>408.7418782144268</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>70.24786957409245</v>
+        <v>32.3200546942064</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>450</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T38" t="n">
         <v>450</v>
@@ -30245,10 +30285,10 @@
         <v>345.2284201497952</v>
       </c>
       <c r="I39" t="n">
-        <v>187.3932400069932</v>
+        <v>234.8539677838776</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.2561356901127</v>
       </c>
       <c r="K39" t="n">
         <v>104.7763862222222</v>
@@ -30260,10 +30300,10 @@
         <v>384.7447782656031</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>141.2247768981573</v>
       </c>
       <c r="P39" t="n">
         <v>105.4847073258963</v>
@@ -30272,7 +30312,7 @@
         <v>190.354460434013</v>
       </c>
       <c r="R39" t="n">
-        <v>353.6705416505001</v>
+        <v>380.5048676619724</v>
       </c>
       <c r="S39" t="n">
         <v>340.140588939824</v>
@@ -30327,16 +30367,16 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K40" t="n">
-        <v>33.41313474948632</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L40" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N40" t="n">
         <v>224.3149960555556</v>
@@ -30382,31 +30422,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="I41" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J41" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30415,43 +30455,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>196.7209218773325</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0.2870600406814136</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.8226843274854</v>
+        <v>104.4624953052153</v>
       </c>
       <c r="R41" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>389</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="U41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="V41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="W41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="X41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Y41" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42">
@@ -30494,16 +30534,16 @@
         <v>113.9979611111111</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>384.7447782656031</v>
       </c>
       <c r="N42" t="n">
-        <v>183.4377591896529</v>
+        <v>350.7819770626954</v>
       </c>
       <c r="O42" t="n">
         <v>141.2247768981573</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q42" t="n">
         <v>190.354460434013</v>
@@ -30518,19 +30558,19 @@
         <v>388.5340187629571</v>
       </c>
       <c r="U42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="V42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="W42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="X42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Y42" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
@@ -30564,16 +30604,16 @@
         <v>198.9797601612903</v>
       </c>
       <c r="J43" t="n">
-        <v>46.37142802720122</v>
+        <v>169.4692651351351</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>209.5527724444444</v>
       </c>
       <c r="L43" t="n">
         <v>227.9959222222222</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N43" t="n">
         <v>224.3149960555556</v>
@@ -30585,13 +30625,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="R43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="S43" t="n">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="T43" t="n">
         <v>223.1403870791274</v>
@@ -30619,31 +30659,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I44" t="n">
-        <v>270.7281754064649</v>
+        <v>136.407413904614</v>
       </c>
       <c r="J44" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30652,43 +30692,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>351.4481946046052</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>352</v>
+        <v>281.4967396361989</v>
       </c>
       <c r="O44" t="n">
-        <v>70.24786957409245</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2870600406814136</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>172.8226843274854</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>352</v>
+        <v>250.2973349495345</v>
       </c>
       <c r="T44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="X44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
@@ -30698,10 +30738,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D45" t="n">
         <v>347.9376868977026</v>
@@ -30725,49 +30765,49 @@
         <v>102.2561356901127</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3427308813362</v>
+        <v>104.7763862222222</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>113.9979611111111</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="N45" t="n">
-        <v>350.7819770626954</v>
+        <v>348</v>
       </c>
       <c r="O45" t="n">
         <v>141.2247768981573</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>105.4847073258963</v>
       </c>
       <c r="Q45" t="n">
         <v>190.354460434013</v>
       </c>
       <c r="R45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S45" t="n">
         <v>340.140588939824</v>
       </c>
       <c r="T45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="V45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="X45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Y45" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
@@ -30807,13 +30847,13 @@
         <v>209.5527724444444</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>227.9959222222222</v>
       </c>
       <c r="M46" t="n">
-        <v>129.7512178163085</v>
+        <v>225.2274288888889</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>224.3149960555556</v>
       </c>
       <c r="O46" t="n">
         <v>212.2016842222222</v>
@@ -30822,13 +30862,13 @@
         <v>301.8909021922657</v>
       </c>
       <c r="Q46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="R46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S46" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="T46" t="n">
         <v>223.1403870791274</v>

--- a/model/Outputs/2. No PV/Output Files/10/Output_46_42.xlsx
+++ b/model/Outputs/2. No PV/Output Files/10/Output_46_42.xlsx
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unmet Demand" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Household Surplus" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +542,26 @@
       </c>
       <c r="B10" t="n">
         <v>25040.62090061318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>VoLL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Household Surplus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>347056.7201190966</v>
       </c>
     </row>
   </sheetData>
@@ -26084,6 +26105,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>surplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7930.647852463539</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14874.09660540369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>21817.54535834383</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28806.38216681574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>35745.76386189998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>42658.49174699629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49568.23594607809</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56477.98014515991</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63461.27977692651</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>70349.12627553965</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77175.23445230862</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>83993.45352247194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90811.67259263527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>97799.37669432357</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>105078.7018472159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
